--- a/biology/Botanique/Augusta_Luise_(rose)/Augusta_Luise_(rose).xlsx
+++ b/biology/Botanique/Augusta_Luise_(rose)/Augusta_Luise_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Augusta Luise' est un cultivar de rosier obtenu par la Maison Tantau à Uetersen en Allemagne en 1999 en hommage au 250e anniversaire de la naissance de Goethe (1749-1832), et de la comtesse Augusta-Louise de Stolberg-Stolberg (1753-1835) qui fut l'une de ses correspondantes célèbres. Celle-ci a demeuré dans l'ancienne abbaye cistercienne d'Uetersen, devenue à son époque maison de dames de la noblesse.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette rose hybride de thé parfumée de couleur champagne-rosé est issue de 'Foxtrot' et de 'Rachel' et fleurit de juin à septembre. Ses fleurs ayant jusqu'à quarante pétales et à grande tige peuvent atteindre 12 cm de diamètre et le rosier 1 m de hauteur. Son feuillage est vert foncé. 'Augusta Luise' résiste au froid jusqu'à -17°. Elle est parfaite pour des fleurs coupées et des parterres.
 </t>
@@ -543,7 +557,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
